--- a/posts/Mariners Playoff Analysis/2022battingstats.xlsx
+++ b/posts/Mariners Playoff Analysis/2022battingstats.xlsx
@@ -22,7 +22,7 @@
     <t>BatAge</t>
   </si>
   <si>
-    <t>R/G</t>
+    <t>RG</t>
   </si>
   <si>
     <t>G</t>
@@ -467,7 +467,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
